--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23115" windowHeight="10605" activeTab="5"/>
+    <workbookView windowWidth="22530" windowHeight="9570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="new_pswData" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>a123456</t>
   </si>
@@ -60,6 +60,9 @@
     <t>手机号码或密码错误</t>
   </si>
   <si>
+    <t>密码修改成功</t>
+  </si>
+  <si>
     <t>请输入您的公司全称</t>
   </si>
   <si>
@@ -139,6 +142,18 @@
   </si>
   <si>
     <t>(CompanyId = '934753474143848109' OR otherid = '934753474143848109')</t>
+  </si>
+  <si>
+    <t>获取登录验证码</t>
+  </si>
+  <si>
+    <t>sms_code_record</t>
+  </si>
+  <si>
+    <t>['code']</t>
+  </si>
+  <si>
+    <t>PHONE = '18782038145' ORDER BY CTIME DESC</t>
   </si>
 </sst>
 </file>
@@ -146,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,6 +172,21 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,43 +206,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,63 +274,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,8 +524,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -519,8 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,41 +553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +586,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +627,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +639,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,8 +1176,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1231,8 +1246,16 @@
     <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1"/>
@@ -1331,47 +1354,47 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1399,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -1413,13 +1436,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1431,13 +1454,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42.375" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -1447,58 +1470,72 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,30 +4,58 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="9570" activeTab="2"/>
+    <workbookView windowWidth="22530" windowHeight="9570" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="new_pswData" sheetId="3" r:id="rId1"/>
+    <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
     <sheet name="register" sheetId="4" r:id="rId2"/>
-    <sheet name="logindata" sheetId="5" r:id="rId3"/>
+    <sheet name="psw_login" sheetId="5" r:id="rId3"/>
     <sheet name="company_name" sheetId="6" r:id="rId4"/>
     <sheet name="add_contract" sheetId="7" r:id="rId5"/>
     <sheet name="sql_data" sheetId="8" r:id="rId6"/>
+    <sheet name="code_login" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>psw</t>
+  </si>
+  <si>
+    <t>except_result</t>
+  </si>
+  <si>
+    <t>18782038145</t>
+  </si>
   <si>
     <t>a123456</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>psw</t>
+    <t>密码修改成功</t>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>a1234</t>
+  </si>
+  <si>
+    <t>a1234567899877899</t>
   </si>
   <si>
     <t>name</t>
@@ -36,12 +64,6 @@
     <t>测试数据1</t>
   </si>
   <si>
-    <t>except_result</t>
-  </si>
-  <si>
-    <t>18782038145</t>
-  </si>
-  <si>
     <t>陈嘻嘻</t>
   </si>
   <si>
@@ -51,18 +73,12 @@
     <t>a23456</t>
   </si>
   <si>
-    <t>请输入手机号码</t>
-  </si>
-  <si>
     <t>a12345678</t>
   </si>
   <si>
     <t>手机号码或密码错误</t>
   </si>
   <si>
-    <t>密码修改成功</t>
-  </si>
-  <si>
     <t>请输入您的公司全称</t>
   </si>
   <si>
@@ -144,16 +160,37 @@
     <t>(CompanyId = '934753474143848109' OR otherid = '934753474143848109')</t>
   </si>
   <si>
+    <t>获取重置密码验证码</t>
+  </si>
+  <si>
+    <t>sms_code_record</t>
+  </si>
+  <si>
+    <t>['code']</t>
+  </si>
+  <si>
+    <t>PHONE = '18782038145' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
     <t>获取登录验证码</t>
   </si>
   <si>
-    <t>sms_code_record</t>
-  </si>
-  <si>
-    <t>['code']</t>
-  </si>
-  <si>
-    <t>PHONE = '18782038145' ORDER BY CTIME DESC</t>
+    <t>账号验证码正确登录</t>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+  </si>
+  <si>
+    <t>账号正确，验证码为空登录</t>
+  </si>
+  <si>
+    <t>账号为空，验证码为空</t>
+  </si>
+  <si>
+    <t>验证码登录，验证码输入错误</t>
+  </si>
+  <si>
+    <t>账号和验证码不匹配</t>
   </si>
 </sst>
 </file>
@@ -161,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,7 +213,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,134 +349,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,91 +365,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,91 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,17 +556,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,6 +579,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,24 +639,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,27 +1135,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>123456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1246,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1145,13 +1258,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1159,10 +1272,10 @@
         <v>18782038100</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1287,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1189,92 +1302,70 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1"/>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1"/>
+    <row r="13" customFormat="1"/>
+    <row r="14" customFormat="1"/>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>
     </row>
@@ -1319,9 +1410,6 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1346,55 +1434,55 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1422,27 +1510,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1454,13 +1542,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42.375" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -1470,72 +1558,161 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="9570" activeTab="6"/>
+    <workbookView windowWidth="22530" windowHeight="10410" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
     <sheet name="register" sheetId="4" r:id="rId2"/>
     <sheet name="psw_login" sheetId="5" r:id="rId3"/>
-    <sheet name="company_name" sheetId="6" r:id="rId4"/>
+    <sheet name="add_company" sheetId="6" r:id="rId4"/>
     <sheet name="add_contract" sheetId="7" r:id="rId5"/>
     <sheet name="sql_data" sheetId="8" r:id="rId6"/>
     <sheet name="code_login" sheetId="9" r:id="rId7"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
   <si>
     <t>phone</t>
   </si>
@@ -31,45 +31,177 @@
     <t>except_result</t>
   </si>
   <si>
+    <t>describe</t>
+  </si>
+  <si>
+    <t>18782038147</t>
+  </si>
+  <si>
+    <t>a1234567</t>
+  </si>
+  <si>
+    <t>密码修改成功</t>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>密码为全数字</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>密码为全英文</t>
+  </si>
+  <si>
+    <t>a1234</t>
+  </si>
+  <si>
+    <t>密码少于6位数</t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>a123456</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>18782030002</t>
+  </si>
+  <si>
+    <t>测试注册1</t>
+  </si>
+  <si>
+    <t>完善公司信息，以继续使用契约宝</t>
+  </si>
+  <si>
+    <t>注册成功</t>
+  </si>
+  <si>
     <t>18782038145</t>
   </si>
   <si>
-    <t>a123456</t>
-  </si>
-  <si>
-    <t>密码修改成功</t>
-  </si>
-  <si>
-    <t>请输入手机号码</t>
-  </si>
-  <si>
-    <t>验证码错误</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>asdfgh</t>
-  </si>
-  <si>
-    <t>a1234</t>
-  </si>
-  <si>
-    <t>a1234567899877899</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>测试数据1</t>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>手机号码已经注册</t>
+  </si>
+  <si>
+    <t>已存在的手机号</t>
+  </si>
+  <si>
+    <t>18782030003</t>
+  </si>
+  <si>
+    <t>测试注册2</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>请输入姓名</t>
+  </si>
+  <si>
+    <t>姓名为空</t>
+  </si>
+  <si>
+    <t>测试注册3</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>1878203000</t>
+  </si>
+  <si>
+    <t>测试注册4</t>
+  </si>
+  <si>
+    <t>请输入正确的手机号</t>
+  </si>
+  <si>
+    <t>不符合规则的手机号</t>
+  </si>
+  <si>
+    <t>18782030004</t>
+  </si>
+  <si>
+    <t>aassdd</t>
+  </si>
+  <si>
+    <t>测试注册5</t>
+  </si>
+  <si>
+    <t>请输入6-16位字母数字组合的密码</t>
+  </si>
+  <si>
+    <t>全英为的密码</t>
+  </si>
+  <si>
+    <t>测试注册6</t>
+  </si>
+  <si>
+    <t>全数字的密码</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>测试注册7</t>
+  </si>
+  <si>
+    <t>请输入6-17位字母数字组合的密码</t>
+  </si>
+  <si>
+    <t>小于6位的密码</t>
+  </si>
+  <si>
+    <t>18782030005</t>
+  </si>
+  <si>
+    <t>测试注册8</t>
+  </si>
+  <si>
+    <t>a123457</t>
+  </si>
+  <si>
+    <t>测试注册9</t>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+  </si>
+  <si>
+    <t>验证码为空</t>
+  </si>
+  <si>
+    <t>测试注册10</t>
+  </si>
+  <si>
+    <t>请阅读服务协议并勾选</t>
+  </si>
+  <si>
+    <t>不勾选服务协议</t>
+  </si>
+  <si>
+    <t>18782030006</t>
+  </si>
+  <si>
+    <t>测试注册11</t>
+  </si>
+  <si>
+    <t>注册成功后添加公司</t>
   </si>
   <si>
     <t>陈嘻嘻</t>
   </si>
   <si>
-    <t>请输入密码</t>
-  </si>
-  <si>
     <t>a23456</t>
   </si>
   <si>
@@ -79,33 +211,63 @@
     <t>手机号码或密码错误</t>
   </si>
   <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>重置密码成功后，登录</t>
+  </si>
+  <si>
     <t>请输入您的公司全称</t>
   </si>
   <si>
+    <t>公司名称为空</t>
+  </si>
+  <si>
     <t>金控集团1</t>
   </si>
   <si>
+    <t>默认行业</t>
+  </si>
+  <si>
     <t>金控集团2</t>
   </si>
   <si>
+    <t>选择教育培训行业</t>
+  </si>
+  <si>
     <t>金控集团3</t>
   </si>
   <si>
+    <t>选择水利水电行业</t>
+  </si>
+  <si>
     <t>添加公司已经存在</t>
   </si>
   <si>
+    <t>添加已存在的公司</t>
+  </si>
+  <si>
     <t>成都知道创宇信息技术有限公司</t>
   </si>
   <si>
     <t>该企业已经被认证</t>
   </si>
   <si>
+    <t>添加已被认证的公司</t>
+  </si>
+  <si>
+    <t>金控集团4</t>
+  </si>
+  <si>
+    <t>金控集团5</t>
+  </si>
+  <si>
+    <t>新账号登录后首次添加公司</t>
+  </si>
+  <si>
     <t>company_name</t>
   </si>
   <si>
-    <t>describe</t>
-  </si>
-  <si>
     <t>appraise</t>
   </si>
   <si>
@@ -169,18 +331,42 @@
     <t>['code']</t>
   </si>
   <si>
+    <t>PHONE = '18782038147' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>获取登录验证码</t>
+  </si>
+  <si>
     <t>PHONE = '18782038145' ORDER BY CTIME DESC</t>
   </si>
   <si>
-    <t>获取登录验证码</t>
+    <t>新账号获取登录验证码</t>
+  </si>
+  <si>
+    <t>PHONE = '18782030000' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>获取注册验证码</t>
+  </si>
+  <si>
+    <t>PHONE = '18782030002' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>PHONE = '18782030003' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>PHONE = '18782030004' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>PHONE = '18782030005' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>PHONE = '18782030006' ORDER BY CTIME DESC</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
   </si>
   <si>
-    <t>请输入验证码</t>
-  </si>
-  <si>
     <t>账号正确，验证码为空登录</t>
   </si>
   <si>
@@ -191,6 +377,12 @@
   </si>
   <si>
     <t>账号和验证码不匹配</t>
+  </si>
+  <si>
+    <t>18782030000</t>
+  </si>
+  <si>
+    <t>新号码验证码登录</t>
   </si>
 </sst>
 </file>
@@ -200,8 +392,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -219,15 +411,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -248,9 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +442,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -280,31 +494,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +505,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,9 +533,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,13 +547,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,181 +557,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,25 +761,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,16 +791,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,11 +822,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +837,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +868,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,21 +1327,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1158,80 +1351,93 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>123456</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1243,39 +1449,245 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>18782038100</v>
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>1234567</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1287,20 +1699,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.25"/>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,62 +1723,69 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1"/>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1"/>
-    <row r="14" customFormat="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>
     </row>
@@ -1420,69 +1840,113 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="19" customHeight="1" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1510,13 +1974,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1524,13 +1988,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1542,13 +2006,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="42.375" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
@@ -1558,86 +2022,170 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1649,70 +2197,80 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6">
+        <v>18782030000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="10410" activeTab="2"/>
+    <workbookView windowWidth="18015" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
   <si>
     <t>phone</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>验证码为空</t>
+  </si>
+  <si>
+    <t>所有数据都为空</t>
   </si>
   <si>
     <t>测试注册10</t>
@@ -390,9 +393,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -404,6 +407,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -411,18 +422,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,11 +452,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,72 +473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,7 +490,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,181 +560,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,15 +751,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,17 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,16 +812,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,6 +827,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -856,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,133 +871,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,10 +1452,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1659,35 +1662,43 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +1712,7 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1735,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1749,7 +1760,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1766,10 +1777,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1780,10 +1791,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1843,7 +1854,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1866,87 +1877,87 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1974,13 +1985,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1988,13 +1999,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2025,167 +2036,167 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2226,10 +2237,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2240,7 +2251,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2248,7 +2259,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2256,21 +2267,21 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="10410" activeTab="2"/>
+    <workbookView windowWidth="22530" windowHeight="8265" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="143">
   <si>
     <t>phone</t>
   </si>
@@ -280,6 +280,48 @@
     <t>这是评价这是评价1111</t>
   </si>
   <si>
+    <t>浙江百应科技有限公司</t>
+  </si>
+  <si>
+    <t>这是与浙江百应科技有限公司 的契约描述</t>
+  </si>
+  <si>
+    <t>深圳市易白文化传媒有限公司</t>
+  </si>
+  <si>
+    <t>这是与深圳市易白文化传媒有限公司 的契约描述，我方使用印章</t>
+  </si>
+  <si>
+    <t>这是与千帆渡(北京)网络科技有限公司 的契约描述，对方使用印章</t>
+  </si>
+  <si>
+    <t>这是与千帆渡(北京)网络科技有限公司 的契约描述，都使用印章</t>
+  </si>
+  <si>
+    <t>北京兰奇</t>
+  </si>
+  <si>
+    <t>这个契约不能创建成功</t>
+  </si>
+  <si>
+    <t>对方公司不是契约宝认证用户，无法创建未完成履约</t>
+  </si>
+  <si>
+    <t>北京极致东方文化传播有限公司</t>
+  </si>
+  <si>
+    <t>这是与浙江百应科技有限公司 的契约描述，对方不是印章用户</t>
+  </si>
+  <si>
+    <t>对方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+  </si>
+  <si>
+    <t>这是与浙江百应科技有限公司 的契约描述，选择我方不是印章用户</t>
+  </si>
+  <si>
+    <t>您不是防伪智能印章用户，无法选择使用防伪智能印章。</t>
+  </si>
+  <si>
     <t>table</t>
   </si>
   <si>
@@ -310,7 +352,7 @@
     <t>UserId = "571499710155046449" AND CompanyId = "934753474143848109"</t>
   </si>
   <si>
-    <t>统计当前公司契约总数</t>
+    <t>统计当前公司 成都知道创宇 契约总数</t>
   </si>
   <si>
     <t>com_contract</t>
@@ -362,6 +404,30 @@
   </si>
   <si>
     <t>PHONE = '18782030006' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>获取成都知道创宇 公司下合同章的未使用用章对象</t>
+  </si>
+  <si>
+    <t>sta_req_object o,com_company c</t>
+  </si>
+  <si>
+    <t>o.OBJ_USE_STATUS = 0 AND c.COM_CODE ='91510100MA61RK9N6G' AND o.UUID_STAMP = '426870756405745462'</t>
+  </si>
+  <si>
+    <t>获取千帆渡(北京)网络科技有限公司下合同章的未使用用章对象</t>
+  </si>
+  <si>
+    <t>o.OBJ_USE_STATUS = 0 AND c.COM_CODE ='911101010918641454' AND o.UUID_STAMP = '118857950115527879'</t>
+  </si>
+  <si>
+    <t>统计千帆渡(北京)网络科技有限公司 的契约总数</t>
+  </si>
+  <si>
+    <t>更新福建中鑫华为科技有限公司 为当前公司，验证当前公司不是印章用户</t>
+  </si>
+  <si>
+    <t>UserId = "571499710155046449" AND CompanyId = "415178340104738664"</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
@@ -390,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -419,22 +485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,14 +502,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,33 +539,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,15 +562,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,8 +591,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,187 +623,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,17 +826,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,17 +852,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -820,31 +885,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,145 +922,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1330,7 +1396,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1452,7 +1518,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1701,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1843,7 +1909,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1958,18 +2024,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A10" sqref="$A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="55.125" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1995,6 +2061,82 @@
       </c>
       <c r="C2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2006,18 +2148,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="37.125" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="65.375" customWidth="1"/>
+    <col min="4" max="4" width="70.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2025,167 +2167,214 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>108</v>
       </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
+      <c r="D16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2199,8 +2388,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -2229,7 +2418,7 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2240,7 +2429,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2248,7 +2437,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2256,21 +2445,21 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18015" windowHeight="7590" activeTab="1"/>
+    <workbookView windowWidth="22530" windowHeight="8265" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="add_contract" sheetId="7" r:id="rId5"/>
     <sheet name="sql_data" sheetId="8" r:id="rId6"/>
     <sheet name="code_login" sheetId="9" r:id="rId7"/>
+    <sheet name="upload_contract" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
   <si>
     <t>phone</t>
   </si>
@@ -386,6 +387,55 @@
   </si>
   <si>
     <t>新号码验证码登录</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\testfile\bss需求文档.pdf</t>
+  </si>
+  <si>
+    <t>文档上传成功，系统正在为文档创建数字身份标识
+稍后您可以在【已保护文档】列表中，查看数字身份创建进度</t>
+  </si>
+  <si>
+    <t>上传pdf文件</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\testfile\云玺智能印章技术白皮书.doc</t>
+  </si>
+  <si>
+    <t>上传doc文件</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\testfile\北京云玺物联网智能防伪印章产品采购合同.docx</t>
+  </si>
+  <si>
+    <t>上传docx文件</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\testfile\75页.docx</t>
+  </si>
+  <si>
+    <t>上传较大文件</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\testfile\0字节.doc</t>
+  </si>
+  <si>
+    <t>您选择的文档内容为空，请重新选择</t>
+  </si>
+  <si>
+    <t>上传空文件</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\bug图片\绑定公司.png</t>
+  </si>
+  <si>
+    <t>请选择正确的文件格式：doc、docx、pdf</t>
+  </si>
+  <si>
+    <t>上传错误格式</t>
   </si>
 </sst>
 </file>
@@ -393,9 +443,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -407,9 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,75 +471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,25 +494,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +518,84 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,187 +610,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,21 +801,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -787,30 +822,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -819,11 +830,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,6 +875,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -859,145 +909,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,11 +1055,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1338,14 +1388,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1359,7 +1409,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1370,7 +1420,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1381,7 +1431,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1392,7 +1442,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1403,7 +1453,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1414,7 +1464,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1425,7 +1475,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1433,7 +1483,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -1454,13 +1504,13 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="32.375" customWidth="1"/>
@@ -1468,7 +1518,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1485,7 +1535,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -1502,7 +1552,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1519,7 +1569,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -1533,7 +1583,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -1561,7 +1611,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -1578,7 +1628,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -1595,7 +1645,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9">
@@ -1612,7 +1662,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -1629,7 +1679,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
@@ -1646,7 +1696,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -1671,7 +1721,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B14" t="s">
@@ -1688,7 +1738,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
@@ -1739,7 +1789,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1750,7 +1800,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -1758,7 +1808,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -1767,13 +1817,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -1784,7 +1834,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1798,49 +1848,49 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1928,7 +1978,7 @@
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B7" t="s">
@@ -2080,7 +2130,7 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
@@ -2216,13 +2266,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2233,7 +2283,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2244,7 +2294,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -2263,7 +2313,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -2274,7 +2324,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B6">
@@ -2282,6 +2332,105 @@
       </c>
       <c r="C6" t="s">
         <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="76.25" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="57" spans="1:3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:3">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="1:3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" ht="57" spans="1:3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22530" windowHeight="8265" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="19284" windowHeight="8555" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="sql_data" sheetId="8" r:id="rId6"/>
     <sheet name="code_login" sheetId="9" r:id="rId7"/>
     <sheet name="upload_contract" sheetId="10" r:id="rId8"/>
+    <sheet name="contract_list" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
   <si>
     <t>phone</t>
   </si>
@@ -436,6 +437,30 @@
   </si>
   <si>
     <t>上传错误格式</t>
+  </si>
+  <si>
+    <t>bss</t>
+  </si>
+  <si>
+    <t>哈哈哈</t>
+  </si>
+  <si>
+    <t>没有数据哦~</t>
+  </si>
+  <si>
+    <t>搜索文档无数据</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>拒绝契约，拒绝契约</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>拒绝原因不能为空</t>
   </si>
 </sst>
 </file>
@@ -443,9 +468,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -458,32 +483,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,47 +503,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +521,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,16 +581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +590,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +602,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -610,31 +635,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,19 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,127 +803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,17 +829,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,16 +859,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,48 +898,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +934,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,133 +946,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1386,11 +1411,11 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="19.6296296296296" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="23.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1508,12 +1533,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="32.3796296296296" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1766,12 +1791,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.25"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="31.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1907,11 +1932,11 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="32.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2025,12 +2050,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="24.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2073,12 +2098,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="65.375" customWidth="1"/>
+    <col min="1" max="1" width="42.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="16.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="65.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2264,9 +2289,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.3796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
@@ -2343,17 +2368,17 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="76.25" customWidth="1"/>
     <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="23.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2367,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="1:3">
+    <row r="2" ht="55.2" spans="1:3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2378,7 +2403,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" ht="57" spans="1:3">
+    <row r="3" ht="55.2" spans="1:3">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -2389,7 +2414,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:3">
+    <row r="4" ht="55.2" spans="1:3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2400,7 +2425,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" ht="57" spans="1:3">
+    <row r="5" ht="55.2" spans="1:3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -2431,6 +2456,68 @@
       </c>
       <c r="C7" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19284" windowHeight="8555" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="18570" windowHeight="7590" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
   <si>
     <t>phone</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t>拒绝原因不能为空</t>
+  </si>
+  <si>
+    <t>评价内容不能为空</t>
+  </si>
+  <si>
+    <t>这是评价内容第三方斯蒂芬</t>
+  </si>
+  <si>
+    <t>评价星级不能为空</t>
+  </si>
+  <si>
+    <t>这是评价内容，取消评价</t>
+  </si>
+  <si>
+    <t>这是评价内容，确定评价</t>
+  </si>
+  <si>
+    <t>这是重新编辑的描述</t>
   </si>
 </sst>
 </file>
@@ -489,6 +507,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -496,24 +530,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,9 +554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,15 +568,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -573,9 +608,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,26 +622,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,10 +637,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -635,187 +653,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,12 +847,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -850,30 +881,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -896,9 +903,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,10 +952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,19 +964,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -967,112 +985,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1411,11 +1429,11 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6296296296296" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="23.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1533,12 +1551,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="32.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1791,12 +1809,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.25"/>
-    <col min="2" max="2" width="17.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="31.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="31.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1932,11 +1950,11 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.75" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="32.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="32.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2050,12 +2068,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="24.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="24.3833333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2098,12 +2116,12 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="17.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="16.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="65.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="42.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="17.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="65.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2289,9 +2307,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.3796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.3833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
@@ -2374,11 +2392,11 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="76.25" customWidth="1"/>
     <col min="2" max="2" width="39.25" customWidth="1"/>
-    <col min="3" max="3" width="23.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2392,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="55.2" spans="1:3">
+    <row r="2" ht="57" spans="1:3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2403,7 +2421,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" ht="55.2" spans="1:3">
+    <row r="3" ht="57" spans="1:3">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" ht="55.2" spans="1:3">
+    <row r="4" ht="57" spans="1:3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -2425,7 +2443,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" ht="55.2" spans="1:3">
+    <row r="5" ht="57" spans="1:3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -2483,13 +2501,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="28.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
@@ -2520,6 +2538,37 @@
         <v>145</v>
       </c>
     </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18570" windowHeight="7590" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="24030" windowHeight="11730" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="168">
   <si>
     <t>phone</t>
   </si>
@@ -285,6 +285,48 @@
     <t>这是评价这是评价1111</t>
   </si>
   <si>
+    <t>这是未完成的契约</t>
+  </si>
+  <si>
+    <t>添加未完成的契约，我方使用印章，对方不使用印章</t>
+  </si>
+  <si>
+    <t>添加未完成的契约，我方不使用印章，对方使用印章</t>
+  </si>
+  <si>
+    <t>添加未完成的契约，双方都使用印章</t>
+  </si>
+  <si>
+    <t>成都三之之文化传媒有限公司</t>
+  </si>
+  <si>
+    <t>搜索公司不是契约公司</t>
+  </si>
+  <si>
+    <t>对方公司不是契约宝认证用户，无法创建未完成履约</t>
+  </si>
+  <si>
+    <t>杭州天谷信息科技有限公司</t>
+  </si>
+  <si>
+    <t>搜索公司没有认证</t>
+  </si>
+  <si>
+    <t>杭州移领网络科技有限公司</t>
+  </si>
+  <si>
+    <t>搜索公司不是印章用户，对方使用印章</t>
+  </si>
+  <si>
+    <t>对方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+  </si>
+  <si>
+    <t>添加未完成契约，我方不是印章用户，使用印章</t>
+  </si>
+  <si>
+    <t>我方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+  </si>
+  <si>
     <t>table</t>
   </si>
   <si>
@@ -367,6 +409,12 @@
   </si>
   <si>
     <t>PHONE = '18782030006' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>更新 福建中鑫华为科技有限公司为当前公司,非印章用户</t>
+  </si>
+  <si>
+    <t>UserId = "571499710155046449" AND CompanyId = "415178340104738664"</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
@@ -507,9 +555,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -530,47 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,11 +607,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,8 +646,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,8 +661,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,9 +676,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,6 +701,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -671,169 +869,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,60 +892,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,7 +910,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,6 +948,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -952,10 +1000,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,133 +1012,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2062,17 +2110,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="24.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="3" width="44.125" customWidth="1"/>
     <col min="4" max="4" width="14.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2099,6 +2146,82 @@
       </c>
       <c r="C2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2110,10 +2233,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2129,167 +2252,181 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>114</v>
+      <c r="D16" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2470,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2344,7 +2481,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2352,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2360,21 +2497,21 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2401,7 +2538,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2412,84 +2549,84 @@
     </row>
     <row r="2" ht="57" spans="1:3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2640,7 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2516,7 +2653,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2527,46 +2664,46 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="11730" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="21150" windowHeight="12090" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
   <si>
     <t>phone</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>选择水利水电行业</t>
+  </si>
+  <si>
+    <t>北京极致东方文化传播有限公司</t>
   </si>
   <si>
     <t>添加公司已经存在</t>
@@ -536,8 +539,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -549,14 +552,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,13 +568,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +596,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -607,8 +611,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +621,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,9 +651,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,16 +665,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,187 +704,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,6 +919,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -930,26 +948,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,17 +978,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,16 +1015,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,16 +1036,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,91 +1057,91 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1994,8 +1997,8 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2059,32 +2062,32 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -2092,13 +2095,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2115,7 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2125,13 +2128,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2139,89 +2142,89 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
         <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2252,181 +2255,181 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2470,7 +2473,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2481,7 +2484,7 @@
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2489,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2497,21 +2500,21 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2541,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2549,84 +2552,84 @@
     </row>
     <row r="2" ht="57" spans="1:3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="57" spans="1:3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2656,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2664,46 +2667,46 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21150" windowHeight="12090" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20670" windowHeight="10920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -327,7 +327,7 @@
     <t>添加未完成契约，我方不是印章用户，使用印章</t>
   </si>
   <si>
-    <t>我方不是防伪智能印章用户，无法选择使用防伪智能印章</t>
+    <t>您不是防伪智能印章用户，无法选择使用防伪智能印章。</t>
   </si>
   <si>
     <t>table</t>
@@ -539,8 +539,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -548,28 +548,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,7 +567,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,7 +589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,9 +603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,7 +612,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,27 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -694,6 +664,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -704,187 +704,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,17 +895,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,6 +918,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -963,21 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -995,6 +980,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1003,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,133 +1015,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1997,7 +1997,7 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2115,8 +2115,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20670" windowHeight="10920" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20190" windowHeight="10980" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -551,23 +551,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,36 +567,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,9 +582,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,8 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,22 +673,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -688,8 +680,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,13 +704,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,169 +866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,11 +898,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,41 +969,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,24 +987,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,133 +1015,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2115,7 +2115,7 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2528,14 +2528,14 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="76.25" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
     <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20190" windowHeight="10980" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="22080" windowHeight="11580" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="code_login" sheetId="9" r:id="rId7"/>
     <sheet name="upload_contract" sheetId="10" r:id="rId8"/>
     <sheet name="contract_list" sheetId="11" r:id="rId9"/>
+    <sheet name="personal_resetpsw" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
   <si>
     <t>phone</t>
   </si>
@@ -418,6 +419,12 @@
   </si>
   <si>
     <t>UserId = "571499710155046449" AND CompanyId = "415178340104738664"</t>
+  </si>
+  <si>
+    <t>个人主页获取重置密码的验证码</t>
+  </si>
+  <si>
+    <t>PHONE = '18782038146' ORDER BY CTIME DESC</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
@@ -530,6 +537,33 @@
   </si>
   <si>
     <t>这是重新编辑的描述</t>
+  </si>
+  <si>
+    <t>new_password</t>
+  </si>
+  <si>
+    <t>* 请输入验证码</t>
+  </si>
+  <si>
+    <t>都不输入</t>
+  </si>
+  <si>
+    <t>* 请输入新密码</t>
+  </si>
+  <si>
+    <t>输入验证码，不输入新密码</t>
+  </si>
+  <si>
+    <t>* 密码格式错误，请重新输入</t>
+  </si>
+  <si>
+    <t>输入密码小于6位</t>
+  </si>
+  <si>
+    <t>123456789987654321</t>
+  </si>
+  <si>
+    <t>输入密码大于16位</t>
   </si>
 </sst>
 </file>
@@ -537,10 +571,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -552,14 +586,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,22 +622,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -596,16 +629,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,16 +645,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,7 +669,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,28 +728,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -704,91 +738,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,91 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,32 +932,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,21 +971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -985,6 +989,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -995,6 +1014,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1003,10 +1037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,144 +1049,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,14 +1522,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1503,7 +1543,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1514,7 +1554,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1525,7 +1565,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1536,7 +1576,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1547,7 +1587,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1558,7 +1598,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1569,7 +1609,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1577,7 +1617,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -1585,6 +1625,77 @@
       </c>
       <c r="C9" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>12345</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1599,12 +1710,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
@@ -1612,7 +1723,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1629,7 +1740,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -1646,7 +1757,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1663,7 +1774,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -1677,7 +1788,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -1705,7 +1816,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -1722,7 +1833,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -1739,7 +1850,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B9">
@@ -1756,7 +1867,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -1773,7 +1884,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
@@ -1790,7 +1901,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -1815,7 +1926,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B14" t="s">
@@ -1832,7 +1943,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
@@ -1883,7 +1994,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -1894,7 +2005,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -1902,7 +2013,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -1911,13 +2022,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -1928,7 +2039,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1942,49 +2053,49 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2072,7 +2183,7 @@
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -2236,10 +2347,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2299,7 +2410,7 @@
       <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D4" t="s">
@@ -2430,6 +2541,20 @@
       </c>
       <c r="D16" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2449,13 +2574,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.3833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2466,25 +2591,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2492,29 +2617,29 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>137</v>
+      <c r="A6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2528,7 +2653,7 @@
   <sheetPr/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2541,7 +2666,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2550,86 +2675,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="1:3">
+    <row r="2" ht="42.75" spans="1:3">
       <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" ht="57" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:3">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" ht="57" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:3">
       <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" ht="57" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:3">
       <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2656,7 +2781,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2667,46 +2792,46 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="189">
   <si>
     <t>phone</t>
   </si>
@@ -424,7 +424,7 @@
     <t>个人主页获取重置密码的验证码</t>
   </si>
   <si>
-    <t>PHONE = '18782038146' ORDER BY CTIME DESC</t>
+    <t>PHONE = '18782038104' ORDER BY CTIME DESC</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
@@ -564,6 +564,33 @@
   </si>
   <si>
     <t>输入密码大于16位</t>
+  </si>
+  <si>
+    <t>输入全数字的密码</t>
+  </si>
+  <si>
+    <t>输入全字母的密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
+  </si>
+  <si>
+    <t>输入全为空格的密码</t>
+  </si>
+  <si>
+    <t>输入错误的验证码</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>修改密码成功</t>
+  </si>
+  <si>
+    <t>重置密码账号</t>
+  </si>
+  <si>
+    <t>重置密码后，重新登录，获取用户名</t>
   </si>
 </sst>
 </file>
@@ -585,15 +612,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,9 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,22 +664,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,52 +695,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -728,6 +710,51 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -738,187 +765,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,6 +956,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -949,9 +1000,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,15 +1042,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1003,32 +1056,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1037,10 +1064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,16 +1076,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,124 +1094,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1517,19 +1541,19 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1543,7 +1567,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1554,7 +1578,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1565,7 +1589,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1576,7 +1600,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1587,7 +1611,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1598,7 +1622,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1609,7 +1633,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1617,7 +1641,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -1636,13 +1660,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
@@ -1688,7 +1712,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B5" t="s">
@@ -1696,6 +1720,69 @@
       </c>
       <c r="C5" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>123456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1802,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
@@ -1723,7 +1810,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1740,7 +1827,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -1757,7 +1844,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1774,7 +1861,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -1788,7 +1875,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -1816,7 +1903,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -1833,7 +1920,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -1850,7 +1937,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9">
@@ -1867,7 +1954,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -1884,7 +1971,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
@@ -1901,7 +1988,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -1926,7 +2013,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B14" t="s">
@@ -1943,7 +2030,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
@@ -1994,7 +2081,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2005,7 +2092,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -2013,7 +2100,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -2022,13 +2109,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -2039,7 +2126,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2053,49 +2140,49 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2183,7 +2270,7 @@
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -2350,7 +2437,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2410,7 +2497,7 @@
       <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D4" t="s">
@@ -2574,13 +2661,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.3833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.3833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2591,7 +2678,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2602,7 +2689,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -2621,7 +2708,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -2632,7 +2719,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B6">
@@ -2679,7 +2766,7 @@
       <c r="A2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C2" t="s">
@@ -2690,7 +2777,7 @@
       <c r="A3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
@@ -2701,7 +2788,7 @@
       <c r="A4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C4" t="s">
@@ -2712,7 +2799,7 @@
       <c r="A5" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C5" t="s">
@@ -2723,7 +2810,7 @@
       <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C6" t="s">

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="11580" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="22080" windowHeight="11580" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="upload_contract" sheetId="10" r:id="rId8"/>
     <sheet name="contract_list" sheetId="11" r:id="rId9"/>
     <sheet name="personal_resetpsw" sheetId="12" r:id="rId10"/>
+    <sheet name="submit_attestation" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
   <si>
     <t>phone</t>
   </si>
@@ -425,6 +426,12 @@
   </si>
   <si>
     <t>PHONE = '18782038104' ORDER BY CTIME DESC</t>
+  </si>
+  <si>
+    <t>统计当前公司（成都知道创宇）的契约总数</t>
+  </si>
+  <si>
+    <t>统计当前公司（成都知道创宇）的待我确认的契约数</t>
   </si>
   <si>
     <t>账号验证码正确登录</t>
@@ -591,6 +598,78 @@
   </si>
   <si>
     <t>重置密码后，重新登录，获取用户名</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>*    请输入正确的企业代码</t>
+  </si>
+  <si>
+    <t>全部内容为空时，点击提交审核</t>
+  </si>
+  <si>
+    <t>3456@qq.com</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi123\Desktop\testfile\提交企业认证的图片.png</t>
+  </si>
+  <si>
+    <t>输入错误格式的企业代码</t>
+  </si>
+  <si>
+    <t>334444455555555</t>
+  </si>
+  <si>
+    <t>*    请输入正确的企业邮箱</t>
+  </si>
+  <si>
+    <t>输入错误格式的邮箱</t>
+  </si>
+  <si>
+    <t>334444455555555223</t>
+  </si>
+  <si>
+    <t>345@qq.com</t>
+  </si>
+  <si>
+    <t>*    请选择您要上传的图片</t>
+  </si>
+  <si>
+    <t>未选择营业执照图片</t>
+  </si>
+  <si>
+    <t>346@qq.com</t>
+  </si>
+  <si>
+    <t>*    上传图片格式错误</t>
+  </si>
+  <si>
+    <t>上传错误格式的图片</t>
+  </si>
+  <si>
+    <t>347@qq.com</t>
+  </si>
+  <si>
+    <t>C:\Users\yunxi124\Desktop\testfile\WPS图片-修改尺寸.jpg</t>
+  </si>
+  <si>
+    <t>*    上传图片大小必须小于5M</t>
+  </si>
+  <si>
+    <t>上传大于5M的营业执照</t>
+  </si>
+  <si>
+    <t>348@qq.com</t>
+  </si>
+  <si>
+    <t>审核中</t>
+  </si>
+  <si>
+    <t>提交审核成功</t>
   </si>
 </sst>
 </file>
@@ -598,8 +677,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -609,6 +688,81 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,47 +789,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,54 +805,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,6 +827,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -762,6 +841,48 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -777,7 +898,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,61 +988,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,97 +1018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,61 +1038,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,6 +1071,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1064,150 +1143,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1546,14 +1628,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1567,7 +1649,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1578,7 +1660,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1589,7 +1671,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1600,7 +1682,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1611,7 +1693,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1622,7 +1704,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1633,7 +1715,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1641,7 +1723,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -1662,7 +1744,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1675,7 +1757,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1686,40 +1768,40 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>12345</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>176</v>
+      <c r="B4" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
-        <v>176</v>
-      </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1727,10 +1809,10 @@
         <v>123456</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1738,21 +1820,21 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1763,7 +1845,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1771,21 +1853,189 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="53.75" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5">
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>12345678</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5">
+        <v>34556</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="3456@qq.com"/>
+    <hyperlink ref="B6" r:id="rId2" display="345@qq.com"/>
+    <hyperlink ref="B7" r:id="rId2" display="346@qq.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="347@qq.com"/>
+    <hyperlink ref="B9" r:id="rId2" display="348@qq.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1802,7 +2052,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1333333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
@@ -1810,7 +2060,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1827,7 +2077,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -1844,7 +2094,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -1861,7 +2111,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -1875,7 +2125,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -1903,7 +2153,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -1920,7 +2170,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -1937,7 +2187,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B9">
@@ -1954,7 +2204,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -1971,7 +2221,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
@@ -1988,7 +2238,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -2013,7 +2263,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B14" t="s">
@@ -2030,7 +2280,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
@@ -2081,7 +2331,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2092,7 +2342,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -2100,7 +2350,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -2109,13 +2359,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -2126,7 +2376,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2140,49 +2390,49 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2270,7 +2520,7 @@
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -2434,15 +2684,15 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="17.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="16.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="65.3833333333333" customWidth="1"/>
@@ -2497,7 +2747,7 @@
       <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D4" t="s">
@@ -2642,6 +2892,25 @@
       </c>
       <c r="D17" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2661,13 +2930,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.3833333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2678,25 +2947,25 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -2704,29 +2973,29 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>139</v>
+      <c r="A6" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="B6">
         <v>18782030000</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +3022,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2764,84 +3033,84 @@
     </row>
     <row r="2" ht="42.75" spans="1:3">
       <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="42.75" spans="1:3">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:3">
       <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="42.75" spans="1:3">
       <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -2879,46 +3148,46 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="11580" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="19365" windowHeight="11520" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="contract_list" sheetId="11" r:id="rId9"/>
     <sheet name="personal_resetpsw" sheetId="12" r:id="rId10"/>
     <sheet name="submit_attestation" sheetId="13" r:id="rId11"/>
+    <sheet name="company_card" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="242">
   <si>
     <t>phone</t>
   </si>
@@ -670,6 +671,87 @@
   </si>
   <si>
     <t>提交审核成功</t>
+  </si>
+  <si>
+    <t>logo_path</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>请输入联系人姓名</t>
+  </si>
+  <si>
+    <t>全部为空提交</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>必填项输入全空格</t>
+  </si>
+  <si>
+    <t>联系人陈</t>
+  </si>
+  <si>
+    <t>请输入联系电话</t>
+  </si>
+  <si>
+    <t>必填项联系电话未输入</t>
+  </si>
+  <si>
+    <t>联系人黄</t>
+  </si>
+  <si>
+    <t>dsjfkdjfld</t>
+  </si>
+  <si>
+    <t>联系电话格式不正确</t>
+  </si>
+  <si>
+    <t>必填项联系电话输入非数字</t>
+  </si>
+  <si>
+    <t>联系人李</t>
+  </si>
+  <si>
+    <t>18782038100</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>输入联系人和联系电话</t>
+  </si>
+  <si>
+    <t>联系人王</t>
+  </si>
+  <si>
+    <t>18700000000</t>
+  </si>
+  <si>
+    <t>成都市双流区华阳街道</t>
+  </si>
+  <si>
+    <t>www.baidu.com</t>
+  </si>
+  <si>
+    <t>公司简介公司简介公司简介</t>
+  </si>
+  <si>
+    <t>输入所有字段内容</t>
   </si>
 </sst>
 </file>
@@ -677,8 +759,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -706,28 +788,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -736,7 +796,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,9 +818,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,9 +848,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +895,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,17 +910,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -841,6 +923,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -856,7 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +980,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,31 +1064,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,115 +1106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,39 +1117,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1088,20 +1137,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,6 +1159,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1135,6 +1184,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1143,10 +1225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,16 +1237,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,115 +1255,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1289,14 +1371,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1628,14 +1710,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.6333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.6333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="23.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1649,7 +1731,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1660,7 +1742,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1671,7 +1753,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -1682,7 +1764,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1693,7 +1775,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1704,7 +1786,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -1715,7 +1797,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -1723,7 +1805,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -1786,7 +1868,7 @@
       <c r="A4">
         <v>12345</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C4" t="s">
@@ -1878,8 +1960,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1920,7 +2002,7 @@
       <c r="A3">
         <v>12345678</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C3" t="s">
@@ -1937,7 +2019,6 @@
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B4"/>
       <c r="C4" t="s">
         <v>196</v>
       </c>
@@ -1966,10 +2047,9 @@
       <c r="A6" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C6"/>
       <c r="D6" t="s">
         <v>203</v>
       </c>
@@ -1981,7 +2061,7 @@
       <c r="A7" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C7" t="s">
@@ -1998,7 +2078,7 @@
       <c r="A8" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C8" t="s">
@@ -2015,7 +2095,7 @@
       <c r="A9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C9" t="s">
@@ -2035,6 +2115,148 @@
     <hyperlink ref="B7" r:id="rId2" display="346@qq.com"/>
     <hyperlink ref="B8" r:id="rId2" display="347@qq.com"/>
     <hyperlink ref="B9" r:id="rId2" display="348@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="56.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="7:8">
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="www.baidu.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2052,7 +2274,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.1333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="32.3833333333333" customWidth="1"/>
@@ -2060,7 +2282,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2077,7 +2299,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
@@ -2094,7 +2316,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -2111,7 +2333,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
@@ -2125,7 +2347,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
@@ -2153,7 +2375,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
@@ -2170,7 +2392,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8" t="s">
@@ -2187,7 +2409,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B9">
@@ -2204,7 +2426,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B10" t="s">
@@ -2221,7 +2443,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B11" t="s">
@@ -2238,7 +2460,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B12" t="s">
@@ -2263,7 +2485,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B14" t="s">
@@ -2280,7 +2502,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
@@ -2331,7 +2553,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2342,7 +2564,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
@@ -2350,7 +2572,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -2359,13 +2581,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -2376,7 +2598,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -2390,49 +2612,49 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3"/>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="3"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3"/>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="3"/>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
+      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2520,7 +2742,7 @@
       </c>
     </row>
     <row r="7" ht="19" customHeight="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
@@ -2747,7 +2969,7 @@
       <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D4" t="s">
@@ -2930,13 +3152,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.3833333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.3833333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2947,7 +3169,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -2958,7 +3180,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
@@ -2977,7 +3199,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -2988,7 +3210,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B6">
@@ -3035,7 +3257,7 @@
       <c r="A2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C2" t="s">
@@ -3046,7 +3268,7 @@
       <c r="A3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C3" t="s">
@@ -3057,7 +3279,7 @@
       <c r="A4" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C4" t="s">
@@ -3068,7 +3290,7 @@
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C5" t="s">
@@ -3079,7 +3301,7 @@
       <c r="A6" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C6" t="s">

--- a/TestData/test_data.xlsx
+++ b/TestData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19365" windowHeight="11520" firstSheet="8" activeTab="11"/>
+    <workbookView windowWidth="24750" windowHeight="11805" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="reset_psw" sheetId="3" r:id="rId1"/>
@@ -207,22 +207,22 @@
     <t>注册成功后添加公司</t>
   </si>
   <si>
+    <t>a23456</t>
+  </si>
+  <si>
+    <t>a12345678</t>
+  </si>
+  <si>
+    <t>手机号码或密码错误</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>重置密码成功后，登录</t>
+  </si>
+  <si>
     <t>陈嘻嘻</t>
-  </si>
-  <si>
-    <t>a23456</t>
-  </si>
-  <si>
-    <t>a12345678</t>
-  </si>
-  <si>
-    <t>手机号码或密码错误</t>
-  </si>
-  <si>
-    <t>小小</t>
-  </si>
-  <si>
-    <t>重置密码成功后，登录</t>
   </si>
   <si>
     <t>请输入您的公司全称</t>
@@ -759,9 +759,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -789,7 +789,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,6 +827,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,59 +886,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -880,7 +895,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,26 +909,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -926,13 +926,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +1016,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,97 +1070,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,55 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,16 +1120,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1159,50 +1168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1217,6 +1182,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1225,10 +1225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,133 +1237,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2126,7 +2126,7 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2524,10 +2524,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2556,60 +2556,63 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
         <v>65</v>
       </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1"/>
@@ -2652,9 +2655,6 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3173,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>136</v>
